--- a/2020.4.24 Coronavirus quarantine report.xlsx
+++ b/2020.4.24 Coronavirus quarantine report.xlsx
@@ -16,9 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -48,9 +46,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -348,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:O52"/>
+  <dimension ref="A2:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -359,21 +356,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The 30 people that need to be quarantined on 2020.4.24</t>
+          <t>The 2 people that need to be quarantined on 2020.4.24</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>545</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Гантөмөр</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Б.Маралмаа</t>
+          <t>Ихбаяр</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -382,56 +384,75 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>УП92071624</t>
-        </is>
+          <t>ДИ98071006</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>94982880</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Ханбогд</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>202</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>38-39</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>"Асралт мед"
-эмнэлэг</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="n">
-        <v>43886</v>
-      </c>
-      <c r="O3" s="1" t="n">
-        <v>43888</v>
+          <t>Ахмадын сувилал</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2020.03.28</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2020.04.28</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110</v>
+        <v>546</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Одонхүү</t>
+          <t xml:space="preserve">Жигмид </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ундармаа</t>
+          <t xml:space="preserve">Энхбат </t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>эм</t>
+          <t>эр</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>ЧО84080104</t>
+          <t>ЕП62070119</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>99893380</v>
+        <v>80171200</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -439,102 +460,53 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>16</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>БУ 1</t>
-        </is>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>716</v>
+        <v>21</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Багабаян Энхийн төлөө цогцолбор төв</t>
-        </is>
-      </c>
-      <c r="N4" s="1" t="n">
-        <v>43901</v>
-      </c>
-      <c r="O4" s="1" t="n">
-        <v>43915</v>
+          <t>Ахмадын сувилал</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2020.03.28</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2020.04.28</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>111</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Өлзийндондов</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Нарангэрэл</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>60</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>эм</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ХЙ61120304</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>99056886</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Аккадеми хотхон</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Багабаян Энхийн төлөө цогцолбор төв</t>
-        </is>
-      </c>
-      <c r="N5" s="1" t="n">
-        <v>43901</v>
-      </c>
-      <c r="O5" s="1" t="n">
-        <v>43915</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>The 37 people that are leaving quarantine on 2020.4.24</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>112</v>
+        <v>508</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Цэрэндаваа</t>
+          <t>Өнөр</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Сумъяа</t>
+          <t>Мягмархүү</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -543,11 +515,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>ПБ88091973</t>
+          <t>ТВ76092173</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>99053929</v>
+        <v>99394067</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -555,55 +527,66 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="K6" t="n">
-        <v>122</v>
+        <v>3</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Дэлгэрэх хотхон</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>80/2 байр</t>
+        </is>
       </c>
       <c r="L6" t="n">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Багабаян Энхийн төлөө цогцолбор төв</t>
-        </is>
-      </c>
-      <c r="N6" s="1" t="n">
-        <v>43901</v>
-      </c>
-      <c r="O6" s="1" t="n">
-        <v>43915</v>
+          <t>Цэргийн төв эмнэлэг</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>113</v>
+        <v>509</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Батмөнх</t>
+          <t>Цоодол</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Эрдэнэбаатар</t>
+          <t>Батжаргал</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>РЭ90090311</t>
+          <t>ФБ67112561</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>88198100</v>
+        <v>99800649</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -611,60 +594,61 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>4 бэрх хотхон</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>422</v>
+        <v>15</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>72-р байр</t>
+        </is>
       </c>
       <c r="L7" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Багабаян Энхийн төлөө цогцолбор төв</t>
-        </is>
-      </c>
-      <c r="N7" s="1" t="n">
-        <v>43901</v>
-      </c>
-      <c r="O7" s="1" t="n">
-        <v>43915</v>
+          <t xml:space="preserve">Цэргийн төв эмнэлэг </t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>114</v>
+        <v>510</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Эрдэнэбилэг</t>
+          <t>Долгорсүрэн</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Зулцэцэг</t>
+          <t>Дагвадорж</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>эм</t>
+          <t>эр</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ТД90082725</t>
+          <t>УС80092711</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>88198100</v>
+        <v>88886888</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -672,60 +656,63 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>4 бэрх хотхон</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>422</v>
-      </c>
-      <c r="L8" t="n">
-        <v>31</v>
+          <t>Godresident</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>54-14</t>
+        </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Багабаян Энхийн төлөө цогцолбор төв</t>
-        </is>
-      </c>
-      <c r="N8" s="1" t="n">
-        <v>43901</v>
-      </c>
-      <c r="O8" s="1" t="n">
-        <v>43915</v>
+          <t>ХӨСҮТ Элэгний клиник</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>115</v>
+        <v>511</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Эрдэнэбаатар</t>
+          <t>Дагвадорж</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Намунханд</t>
+          <t>Ичинхорлоо</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>16</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ЩК19301513</t>
+          <t>ЧХ03240708</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>88198100</v>
+        <v>80262626</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -733,47 +720,50 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>4 бэрх хотхон</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>422</v>
-      </c>
-      <c r="L9" t="n">
-        <v>31</v>
+          <t>Геринбилла</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>502-203</t>
+        </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Багабаян Энхийн төлөө цогцолбор төв</t>
-        </is>
-      </c>
-      <c r="N9" s="1" t="n">
-        <v>43901</v>
-      </c>
-      <c r="O9" s="1" t="n">
-        <v>43915</v>
+          <t>ХӨСҮТ Элэгний клиник</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>116</v>
+        <v>512</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Чулуундорж</t>
+          <t>Мөнхтунгалаг</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Долгормаа</t>
+          <t>Отгонцэцэг</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -782,11 +772,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ДС70102904</t>
+          <t>УХ94010701</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>88502264</v>
+        <v>88888879</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -796,41 +786,48 @@
       <c r="I10" t="n">
         <v>11</v>
       </c>
-      <c r="K10" t="n">
-        <v>55</v>
-      </c>
-      <c r="L10" t="n">
-        <v>36</v>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Godresident</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>54-14</t>
+        </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Алтанбулаг сум,
-Нийгмийн даатгалын байр</t>
-        </is>
-      </c>
-      <c r="N10" s="1" t="n">
-        <v>43901</v>
-      </c>
-      <c r="O10" s="1" t="n">
-        <v>43915</v>
+          <t>ХӨСҮТ Элэгний клиник</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>117</v>
+        <v>513</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Готов</t>
+          <t>Гансүх</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Г.эрдэнэчимэг</t>
+          <t>Оюундарь</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -839,11 +836,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>ШГ62022005</t>
+          <t>УЦ09320341</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>99988091</v>
+        <v>95631066</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -851,43 +848,50 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>15</v>
-      </c>
-      <c r="L11" t="n">
-        <v>365</v>
+        <v>11</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Foursen sar c gorden Rohd</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>3-713</t>
+        </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N11" s="1" t="n">
-        <v>43903</v>
-      </c>
-      <c r="O11" s="1" t="n">
-        <v>43917</v>
+          <t>ХӨСҮТ Элэгний клиник</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>118</v>
+        <v>514</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Готов</t>
+          <t>Ганбаатар</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Г.Энхцэцэг</t>
+          <t>Есүгэн</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -896,68 +900,70 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ШГ69091108</t>
+          <t>УП04251001</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>99270973</v>
+        <v>88092424</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I12" t="n">
-        <v>8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>26</v>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Нүхт </t>
+        </is>
       </c>
       <c r="L12" t="n">
-        <v>692</v>
+        <v>52</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N12" s="1" t="n">
-        <v>43903</v>
-      </c>
-      <c r="O12" s="1" t="n">
-        <v>43917</v>
+          <t>ХӨСҮТ Элэгний клиник</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>119</v>
+        <v>515</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Батхүү</t>
+          <t>Чулуунзоригт</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Наранбадрах</t>
+          <t>Цогжавхлан</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>ЗЮ84122096</t>
+          <t>УК99033128</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>99113623</v>
+        <v>99185713</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -965,150 +971,181 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Кингтаур </t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>248</v>
+          <t>4-н маралгоо цэцэрлэг</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>С3-709</t>
+        </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг, хүүхдийн тасаг</t>
+          <t>ХӨСҮТ Элэгний клиник</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2020.03.16</t>
+          <t>2020.04.03</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2020.03.30</t>
+          <t>2020.04.24</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>120</v>
+        <v>516</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Пүрэв</t>
+          <t xml:space="preserve">МөнхОргил </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>П.Уянга</t>
+          <t xml:space="preserve">Рааднабазар </t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>Эр</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>ТЛ72092809</t>
+          <t>УО04220453</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>99185037</v>
+        <v>80111070</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>11 хороо</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Велла виста </t>
+        </is>
+      </c>
+      <c r="L14" t="n">
         <v>11</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N14" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O14" s="1" t="n">
-        <v>43920</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>121</v>
+        <v>517</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Нямболд</t>
+          <t xml:space="preserve">Баттулга </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Н.Наран</t>
+          <t xml:space="preserve">Даян </t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>эм</t>
+          <t>Эр</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>УЛ10322367</t>
+          <t>УХ05280853</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>99185037</v>
+        <v>94655589</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I15" t="n">
-        <v>11</v>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>11 хороо</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сөүл Роял кавинтин  </t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>307</v>
+      </c>
+      <c r="L15" t="n">
+        <v>301</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O15" s="1" t="n">
-        <v>43920</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>122</v>
+        <v>518</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Нямболд</t>
+          <t xml:space="preserve">Баттулга </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Н.Алтан</t>
+          <t xml:space="preserve">Урьн </t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1117,100 +1154,132 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>УЗ12210902</t>
+          <t>УХ99100921</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>99185037</v>
+        <v>94655589</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I16" t="n">
-        <v>11</v>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>11 хороо</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сөүл Роял кавинтин  </t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>307</v>
+      </c>
+      <c r="L16" t="n">
+        <v>301</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N16" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O16" s="1" t="n">
-        <v>43920</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>123</v>
+        <v>519</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Осор</t>
+          <t xml:space="preserve">Нямсүрэн </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>О.Нямболд</t>
+          <t>Нандинцэцэг</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ХП67121216</t>
+          <t>ДА94122704</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>95958888</v>
+        <v>99809059</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I17" t="n">
-        <v>11</v>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>15 хороо</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Роял гарден </t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N17" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O17" s="1" t="n">
-        <v>43920</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>124</v>
+        <v>520</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Шарав</t>
+          <t xml:space="preserve">Нямсүрэн </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ш.Алтанцэцэг</t>
+          <t xml:space="preserve">Намуундарь </t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1219,711 +1288,796 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>УК65060309</t>
+          <t>УИ96041901</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>99110411</v>
+        <v>99809059</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I18" t="n">
-        <v>11</v>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>15 хороо</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Роял гарден </t>
+        </is>
       </c>
       <c r="K18" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N18" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>43920</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>125</v>
+        <v>521</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Намжид</t>
+          <t xml:space="preserve">Намжилжав </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Н.Баярсайхан</t>
+          <t xml:space="preserve">Нямсүрэн </t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>Эр</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ШВ63071076</t>
+          <t>УС65120512</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>99193321</v>
+        <v>99999009</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I19" t="n">
-        <v>11</v>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>15 хороо</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Роял гарден </t>
+        </is>
       </c>
       <c r="K19" t="n">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N19" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O19" s="1" t="n">
-        <v>43920</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>126</v>
+        <v>522</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Хурц</t>
+          <t xml:space="preserve">Цагаан </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Х.Тайван</t>
+          <t xml:space="preserve">Ариунтунгалаг </t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>УХ91082132</t>
+          <t>ДЮ69112364</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>99093760</v>
+        <v>99197619</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I20" t="n">
-        <v>11</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>15 хороо</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Роял гарден </t>
+        </is>
       </c>
       <c r="K20" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N20" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O20" s="1" t="n">
-        <v>43920</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>127</v>
+        <v>523</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Дамдинсүрэн</t>
+          <t>Гаав</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Д.Батхүү</t>
+          <t xml:space="preserve">Хандсүрэн </t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>ХБ85031811</t>
+          <t>ПЭ81092306</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>99255555</v>
+        <v>99176263</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I21" t="n">
-        <v>15</v>
-      </c>
-      <c r="J21" t="n">
-        <v>15</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>57а</t>
-        </is>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Ривер гарден 2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>406</v>
       </c>
       <c r="L21" t="n">
-        <v>39</v>
+        <v>1204</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O21" s="1" t="n">
-        <v>43920</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>128</v>
+        <v>524</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Пүрэвдорж</t>
+          <t xml:space="preserve">Энхцацрал </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>П.Даваадорж</t>
+          <t xml:space="preserve">Марал </t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>2.8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ЧМ85040879</t>
+          <t>ШН17280263</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>99136906</v>
+        <v>99176263</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I22" t="n">
-        <v>12</v>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Ривер гарден 2</t>
+        </is>
       </c>
       <c r="K22" t="n">
-        <v>8</v>
+        <v>406</v>
       </c>
       <c r="L22" t="n">
-        <v>117</v>
+        <v>1204</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N22" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O22" s="1" t="n">
-        <v>43920</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>129</v>
+        <v>525</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Хангай</t>
+          <t xml:space="preserve">Лувсангэндэн </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Х.Санчир</t>
+          <t>Цэнгэл</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>ШЕ85022111</t>
+          <t>ЧБ64071706</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>88019002</v>
+        <v>99098169</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I23" t="n">
-        <v>4</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10</v>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>15 хороо</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Маршил таун </t>
+        </is>
       </c>
       <c r="K23" t="n">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="L23" t="n">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг,
-хүүхдийн тасаг</t>
-        </is>
-      </c>
-      <c r="N23" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O23" s="1" t="n">
-        <v>43920</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>130</v>
+        <v>526</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Жамъяанхорлоо</t>
+          <t>Жөрөө</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ж.Сүхбаатар</t>
+          <t>Даваахүү</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>Эр</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>ТЖ75022791</t>
+          <t>ЦА63030791</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>93113338</v>
+        <v>99088949</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I24" t="n">
-        <v>11</v>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>15 хороо</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>11
-Таймскуэр хотхон</t>
+          <t xml:space="preserve">Маршил таун </t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>504</v>
+        <v>121</v>
       </c>
       <c r="L24" t="n">
-        <v>402</v>
+        <v>158</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг, Хүүхэд гэр бүл
-хөгжлийн төв</t>
-        </is>
-      </c>
-      <c r="N24" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O24" s="1" t="n">
-        <v>43921</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131</v>
+        <v>527</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Батжаргал</t>
+          <t xml:space="preserve">Бямбадорж </t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Б.Буянжаргал</t>
+          <t xml:space="preserve">Номин </t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>УК00252939</t>
+          <t>АЮ00231704</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>88030525</v>
+        <v>88536121</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I25" t="n">
-        <v>15</v>
-      </c>
-      <c r="J25" t="n">
-        <v>15</v>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>11 хороо</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>3 хэсэг Энхжин хотхон</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>32Г</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>13</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Дархан-Уул аймаг, Хүүхэд гэр бүл
-хөгжлийн төв</t>
-        </is>
-      </c>
-      <c r="N25" s="1" t="n">
-        <v>43906</v>
-      </c>
-      <c r="O25" s="1" t="n">
-        <v>43921</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>132</v>
+        <v>528</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Цэдэн</t>
+          <t xml:space="preserve">Баатарсүх </t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Алтанцаг</t>
+          <t xml:space="preserve">Энэрэл </t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ШВ70030879</t>
+          <t>УЦ01242002</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>88380666</v>
+        <v>94166716</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I26" t="n">
-        <v>15</v>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>15 хороо</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Нархан</t>
+          <t xml:space="preserve">Жаргалан хотхон </t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>515</v>
+        <v>60</v>
       </c>
       <c r="L26" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>Сэлэнгэ аймаг, НЭ
-Сүрьеэгийн тасаг</t>
-        </is>
-      </c>
-      <c r="N26" s="1" t="n">
-        <v>43907</v>
-      </c>
-      <c r="O26" s="1" t="n">
-        <v>43921</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>133</v>
+        <v>529</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Лхамсүрэн</t>
+          <t>Баясгалан</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Батзориг</t>
+          <t xml:space="preserve">Мишээл </t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ВЮ73050511</t>
+          <t>ШУ01260904</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>88007355</v>
+        <v>90009909</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I27" t="n">
-        <v>4</v>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>15 хороо</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Дөрвөн улирал хотхон</t>
+        </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>4-10</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>402а</t>
-        </is>
+          <t>С4</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>405</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Сэлэнгэ аймаг, Сүхбаатар сум, 1-р сургуулийн дотуур
-байр</t>
-        </is>
-      </c>
-      <c r="N27" s="1" t="n">
-        <v>43907</v>
-      </c>
-      <c r="O27" s="1" t="n">
-        <v>43921</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>134</v>
+        <v>530</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Бэгз</t>
+          <t xml:space="preserve">Баатар </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Батжаргал</t>
+          <t>Баярлхагва</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>Эр</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ЧН69031938</t>
+          <t>УХ99030373</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>99116206</v>
+        <v>99116141</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I28" t="n">
-        <v>4</v>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>11 хороо</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Вива сити</t>
-        </is>
+          <t xml:space="preserve">Маршил таун </t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>118</v>
+      </c>
+      <c r="L28" t="n">
+        <v>251</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Сэлэнгэ аймаг, Сүхбаатар сум, 1-р сургуулийн дотуур
-байр</t>
-        </is>
-      </c>
-      <c r="N28" s="1" t="n">
-        <v>43907</v>
-      </c>
-      <c r="O28" s="1" t="n">
-        <v>43921</v>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>354</v>
+        <v>531</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Пүрэвпэлжээ</t>
+          <t xml:space="preserve">Батмөнх </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Янжмаа</t>
+          <t xml:space="preserve">Батболд </t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>эм</t>
+          <t>Эр</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ИЦ59040403</t>
+          <t>ФБ97091079</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>99123696</v>
+        <v>99113527</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I29" t="n">
-        <v>17</v>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">9 хороо </t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Цэцэг хотхон</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>462-3</t>
-        </is>
+          <t>Time scure</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>501</v>
+      </c>
+      <c r="L29" t="n">
+        <v>701</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХӨСҮТ </t>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2020.03.15</t>
+          <t>2020.04.03</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2020.03.30</t>
+          <t>2020.04.24</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>355</v>
+        <v>532</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Батсайхан</t>
+          <t xml:space="preserve">Баатар </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Солонгоо</t>
+          <t xml:space="preserve">Саранбилэг </t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1932,58 +2086,65 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>УХ89040165</t>
+          <t>ХБ72122967</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>97000220</v>
+        <v>99995083</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I30" t="n">
-        <v>11</v>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>11 хороо</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сөүл Роял кавинтин  </t>
+        </is>
       </c>
       <c r="K30" t="n">
-        <v>606</v>
+        <v>309</v>
       </c>
       <c r="L30" t="n">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t xml:space="preserve">ХӨСҮТ </t>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2020.03.15</t>
+          <t>2020.04.03</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2020.03.30</t>
+          <t>2020.04.24</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Гантөмөр</t>
+          <t>Дамбасанжаа</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ихбаяр</t>
+          <t xml:space="preserve">Молор </t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1992,64 +2153,65 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ДИ98071006</t>
+          <t>УЦ01313086</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>94982880</v>
+        <v>99995083</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>11 хороо</t>
+        </is>
+      </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Ханбогд</t>
+          <t xml:space="preserve">Сөүл Роял кавинтин  </t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>202</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>38-39</t>
-        </is>
+        <v>309</v>
+      </c>
+      <c r="L31" t="n">
+        <v>501</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Ахмадын сувилал</t>
+          <t xml:space="preserve">ХӨСҮТ 5-р тасаг </t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2020.03.28</t>
+          <t>2020.04.03</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2020.04.28</t>
+          <t>2020.04.24</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>The 20 people that are leaving quarantine on 2020.4.24</t>
-        </is>
+      <c r="A32" t="n">
+        <v>534</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Жигмид </t>
+          <t>Загдсүрэн</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Энхбат </t>
+          <t>Ганзориг</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2058,11 +2220,8 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>ЕП62070119</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>80171200</v>
+          <t>ХМ68012819</t>
+        </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2070,59 +2229,64 @@
         </is>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>17</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ТАЙМ СКУЭР</t>
+        </is>
       </c>
       <c r="K32" t="n">
-        <v>21</v>
+        <v>506</v>
       </c>
       <c r="L32" t="n">
-        <v>28</v>
+        <v>801</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Ахмадын сувилал</t>
+          <t>ХӨСҮТ</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2020.03.28</t>
+          <t>2020.04.03</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2020.04.28</t>
+          <t>2020.04.24</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>90</v>
+        <v>535</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Чулуунбаатар</t>
+          <t>Сүрэнжав</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Цэрэнчимэд</t>
+          <t>Наран</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>эр</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>УХ90080916</t>
+          <t>РЛ72031228</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>95118320</v>
+        <v>99991080</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2130,55 +2294,61 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Маршал таун</t>
+        </is>
       </c>
       <c r="K33" t="n">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="L33" t="n">
-        <v>87</v>
+        <v>262</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>"Жаргалант" ДССЗТ</t>
-        </is>
-      </c>
-      <c r="N33" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O33" s="1" t="n">
-        <v>43914</v>
+          <t>ХӨСҮТ</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>91</v>
+        <v>536</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Цогтбаатар</t>
+          <t>Ганзориг</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Номулун</t>
+          <t>Цэлмэг</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>эм</t>
+          <t>эр</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>УЗ89102905</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>88119172</v>
+          <t>уу92032732</t>
+        </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2186,37 +2356,51 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ТАЙМ СКУЭР</t>
+        </is>
       </c>
       <c r="K34" t="n">
-        <v>202</v>
+        <v>506</v>
       </c>
       <c r="L34" t="n">
-        <v>24</v>
+        <v>801</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>"Жаргалант" ДССЗТ</t>
-        </is>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>43914</v>
+          <t>ХӨСҮТ</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>92</v>
+        <v>537</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Очирбат</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>А. Одгэрэл</t>
+          <t>Анужин</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2225,49 +2409,55 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>СЩ64031629</t>
+          <t>ух00312709</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>88015978</v>
+        <v>80089009</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
           <t>ХУД</t>
         </is>
       </c>
-      <c r="I35" t="n">
-        <v>15</v>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>15 хороо</t>
-        </is>
+      <c r="K35" t="n">
+        <v>509</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1601</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>"Асралт мед"
-эмнэлэг</t>
-        </is>
-      </c>
-      <c r="N35" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O35" s="1" t="n">
-        <v>43914</v>
+          <t>ХӨСҮТ</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>93</v>
+        <v>538</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Дашмягмаржав</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Д. Бат-Отгон</t>
+          <t>Тамир</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2276,11 +2466,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>МЗ78111419</t>
+          <t>УХ99122937</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>91333379</v>
+        <v>88003010</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2288,32 +2478,46 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>612</v>
+      </c>
+      <c r="L36" t="n">
+        <v>6</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>"Асралт мед"
-эмнэлэг</t>
-        </is>
-      </c>
-      <c r="N36" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O36" s="1" t="n">
-        <v>43914</v>
+          <t>ХӨСҮТ</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>94</v>
+        <v>539</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Лхам</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>С. Амартайван</t>
+          <t>Азжаргал</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2322,11 +2526,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>ИЮ86102617</t>
+          <t>УТ91040636</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>89008900</v>
+        <v>95198989</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2336,30 +2540,44 @@
       <c r="I37" t="n">
         <v>15</v>
       </c>
+      <c r="K37" t="n">
+        <v>163</v>
+      </c>
+      <c r="L37" t="n">
+        <v>12</v>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>"Асралт мед"
-эмнэлэг</t>
-        </is>
-      </c>
-      <c r="N37" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O37" s="1" t="n">
-        <v>43914</v>
+          <t>ХӨСҮТ</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>95</v>
+        <v>540</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Ганхуяг</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Д. Амаржаргал</t>
+          <t>Солонго</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2368,11 +2586,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ЧП80053167</t>
+          <t>ХД85121201</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>99619883</v>
+        <v>94020808</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2380,33 +2598,51 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>энхжин</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>32</v>
+      </c>
+      <c r="L38" t="n">
+        <v>11</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>"Асралт мед"
-эмнэлэг</t>
-        </is>
-      </c>
-      <c r="N38" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O38" s="1" t="n">
-        <v>43914</v>
+          <t>ХӨСҮТ</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>96</v>
+        <v>541</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Бзаррагчаа</t>
+        </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Н.
-Төгөлдөрсайха н</t>
+          <t>Суубилэг</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2415,14 +2651,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>ПБ76041212</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>99991282
-гэр бүл</t>
-        </is>
+          <t>УХ11301116</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>94020808</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2432,29 +2665,44 @@
       <c r="I39" t="n">
         <v>11</v>
       </c>
+      <c r="K39" t="n">
+        <v>32</v>
+      </c>
+      <c r="L39" t="n">
+        <v>11</v>
+      </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>"Асралт мед" эмнэлэг</t>
-        </is>
-      </c>
-      <c r="N39" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O39" s="1" t="n">
-        <v>43914</v>
+          <t>ХӨСҮТ</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>97</v>
+        <v>542</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Бзаррагчаа</t>
+        </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Б. Байгальмаа</t>
+          <t>Гоомаргад</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2463,8 +2711,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>ПБ77102265</t>
-        </is>
+          <t>уу15240264</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>94020808</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2474,83 +2725,119 @@
       <c r="I40" t="n">
         <v>11</v>
       </c>
+      <c r="K40" t="n">
+        <v>32</v>
+      </c>
+      <c r="L40" t="n">
+        <v>11</v>
+      </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>"Асралт мед"
-эмнэлэг</t>
-        </is>
-      </c>
-      <c r="N40" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O40" s="1" t="n">
-        <v>43914</v>
+          <t>ХӨСҮТ</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>98</v>
+        <v>543</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Буянаа</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Т. Оргил</t>
+          <t>Номин-Эрдэнэ</t>
         </is>
       </c>
       <c r="D41" t="n">
+        <v>18</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>эм</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>ух01300630</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>95785588</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>ХУД</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
         <v>15</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>эр</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>УХ04322218</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>11</v>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>с-3</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>516</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>"Асралт мед"
-эмнэлэг</t>
-        </is>
-      </c>
-      <c r="N41" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O41" s="1" t="n">
-        <v>43914</v>
+          <t>ХӨСҮТ</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>99</v>
+        <v>544</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Даваасамбуу</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Т.Анударь</t>
+          <t>Гантулга</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>эм</t>
+          <t>эр</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>УХ11252701</t>
-        </is>
+          <t>ШГ76031912</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>90116566</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2558,620 +2845,33 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Гарден сити</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1101</v>
+      </c>
+      <c r="L42" t="n">
+        <v>105</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>"Асралт мед"
-эмнэлэг</t>
-        </is>
-      </c>
-      <c r="N42" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O42" s="1" t="n">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>100</v>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Д. Цэцгээ</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>52</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>эм</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>ЦЕ67112404</t>
-        </is>
-      </c>
-      <c r="G43" t="n">
-        <v>99052849</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>15</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>"Асралт мед"
-эмнэлэг</t>
-        </is>
-      </c>
-      <c r="N43" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O43" s="1" t="n">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>101</v>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Ч. Батдорж</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>52</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>эр</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>УК67052811</t>
-        </is>
-      </c>
-      <c r="G44" t="n">
-        <v>99117990</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>15</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>"Асралт мед"
-эмнэлэг</t>
-        </is>
-      </c>
-      <c r="N44" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O44" s="1" t="n">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>102</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Дашцоодол</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Д.Сүрэнхорол</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>43</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>эр</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>РУ78011319</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>99085352</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>15</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>Ивээл
-хотхон</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>41в</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>801</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Дархан-Уул аймаг,
-Да-Оюут</t>
-        </is>
-      </c>
-      <c r="N45" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O45" s="1" t="n">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>103</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Баттулга</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Б.Баярцэцэг</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>32</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>эм</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>ВИ86121708</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>88095996</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>15</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Цэлмэг
-хотхон</t>
-        </is>
-      </c>
-      <c r="K46" t="n">
-        <v>87</v>
-      </c>
-      <c r="L46" t="n">
-        <v>74</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>Дархан-Уул аймаг,
-Да-Оюут</t>
-        </is>
-      </c>
-      <c r="N46" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O46" s="1" t="n">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>104</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Банзрагч</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Б.Буяндэлгэр</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>32</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>эр</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>ВЖ86051011</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>88085682</v>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
-        <v>15</v>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Цэлмэг
-хотхон</t>
-        </is>
-      </c>
-      <c r="K47" t="n">
-        <v>87</v>
-      </c>
-      <c r="L47" t="n">
-        <v>74</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Дархан-Уул аймаг,
-Да-Оюут</t>
-        </is>
-      </c>
-      <c r="N47" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O47" s="1" t="n">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>105</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Буяндэлгэр</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Б.Түвшинсана
-а</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>8</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>эр</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>УП12222554</t>
-        </is>
-      </c>
-      <c r="G48" t="n">
-        <v>88085682</v>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>15</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Цэлмэг
-хотхон</t>
-        </is>
-      </c>
-      <c r="K48" t="n">
-        <v>87</v>
-      </c>
-      <c r="L48" t="n">
-        <v>74</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>Дархан-Уул аймаг,
-Да-Оюут</t>
-        </is>
-      </c>
-      <c r="N48" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O48" s="1" t="n">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>106</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Буяндэлгэр</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Б.Буянтогтох</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>эр</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>УЖ16240977</t>
-        </is>
-      </c>
-      <c r="G49" t="n">
-        <v>88085682</v>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
-        <v>15</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Цэлмэг
-хотхон</t>
-        </is>
-      </c>
-      <c r="K49" t="n">
-        <v>87</v>
-      </c>
-      <c r="L49" t="n">
-        <v>74</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>Дархан-Уул аймаг,
-Да-Оюут</t>
-        </is>
-      </c>
-      <c r="N49" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O49" s="1" t="n">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>107</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Буяндэлгэр</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Б.эрдэнэбат</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>2</v>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>эр</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>УЖ17272838</t>
-        </is>
-      </c>
-      <c r="G50" t="n">
-        <v>88085682</v>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
-        <v>15</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Цэлмэг
-хотхон</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>87</v>
-      </c>
-      <c r="L50" t="n">
-        <v>74</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Дархан-Уул аймаг,
-Да-Оюут</t>
-        </is>
-      </c>
-      <c r="N50" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O50" s="1" t="n">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>108</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Алтаа</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>А.Нина</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>62</v>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>эм</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>ВМ58080488</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>89080488</v>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>15</v>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Цэлмэг
-хотхон</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>87</v>
-      </c>
-      <c r="L51" t="n">
-        <v>74</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Дархан-Уул аймаг,
-Да-Оюут</t>
-        </is>
-      </c>
-      <c r="N51" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O51" s="1" t="n">
-        <v>43914</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>109</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Баасандорж</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Б.Одбаяр</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>34</v>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>эм</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>ГЮ86010310</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>99652770</v>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ХУД</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>18</v>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Академи
-хотхон</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>34г</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1702</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Дархан-Уул аймаг,
-Да-Оюут</t>
-        </is>
-      </c>
-      <c r="N52" s="1" t="n">
-        <v>43900</v>
-      </c>
-      <c r="O52" s="1" t="n">
-        <v>43914</v>
+          <t>ХӨСҮТ</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2020.04.03</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>2020.04.24</t>
+        </is>
       </c>
     </row>
   </sheetData>
